--- a/FTZ_ZONE_FORM_SUBMIT/input_data/datapool/FTZ_ZONE_FORM.xlsx
+++ b/FTZ_ZONE_FORM_SUBMIT/input_data/datapool/FTZ_ZONE_FORM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04815C4A-72D9-464B-BFD3-57CDB6EF9BF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81C2A7-9759-4C60-A918-A32ECC85E550}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="582" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35969,21 +35969,12 @@
     <t>Zone_ZoneNumber</t>
   </si>
   <si>
-    <t>Zone_Status</t>
-  </si>
-  <si>
     <t>Zone_Location</t>
   </si>
   <si>
     <t>Zone_ServiceArea</t>
   </si>
   <si>
-    <t>Zone_PortOfEntry</t>
-  </si>
-  <si>
-    <t>Zone_State</t>
-  </si>
-  <si>
     <t>Zone_DateOfFirstZoneActivation</t>
   </si>
   <si>
@@ -36014,9 +36005,6 @@
     <t>Zone_Grantee_City</t>
   </si>
   <si>
-    <t>Zone_Grantee_State</t>
-  </si>
-  <si>
     <t>Zone_Grantee_ZipCode</t>
   </si>
   <si>
@@ -36234,6 +36222,18 @@
   </si>
   <si>
     <t>jd@testing.com5</t>
+  </si>
+  <si>
+    <t>Zone_StateId</t>
+  </si>
+  <si>
+    <t>Zone_PortOfEntryId</t>
+  </si>
+  <si>
+    <t>Zone_StatusId</t>
+  </si>
+  <si>
+    <t>Zone_Grantee_StateId</t>
   </si>
 </sst>
 </file>
@@ -37053,7 +37053,7 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
@@ -37093,58 +37093,58 @@
         <v>11967</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>12055</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>11968</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>11969</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>12054</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12053</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>11970</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>11971</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>11972</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>11973</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>11974</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>11975</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>11976</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>11977</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>11978</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>11979</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
+        <v>12056</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>11980</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>11981</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>11982</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>11983</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>11984</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>11985</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>11820</v>
@@ -37167,46 +37167,46 @@
         <v>11955</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11986</v>
+        <v>11982</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11992</v>
+        <v>11988</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11997</v>
+        <v>11993</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12002</v>
+        <v>11998</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11866</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12010</v>
+        <v>12006</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12011</v>
+        <v>12007</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12012</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>12016</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>12020</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>12020</v>
+        <v>12016</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>12025</v>
+        <v>12021</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>12030</v>
+        <v>12026</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>12030</v>
+        <v>12026</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>12031</v>
+        <v>12027</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>11964</v>
@@ -37215,19 +37215,19 @@
         <v>11867</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>12036</v>
+        <v>12032</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>12041</v>
+        <v>12037</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>12047</v>
+        <v>12043</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>12046</v>
+        <v>12042</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>12052</v>
+        <v>12048</v>
       </c>
       <c r="X2" s="1" t="b">
         <v>1</v>
@@ -37241,46 +37241,46 @@
         <v>11951</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11988</v>
+        <v>11984</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11993</v>
+        <v>11989</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11994</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11998</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12002</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11866</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12010</v>
+        <v>12006</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12012</v>
+        <v>12008</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>12013</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>12017</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>12021</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>12021</v>
+        <v>12017</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>12022</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>12026</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>12030</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>12030</v>
+        <v>12026</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>12032</v>
+        <v>12028</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>11964</v>
@@ -37289,19 +37289,19 @@
         <v>11870</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>12037</v>
+        <v>12033</v>
       </c>
       <c r="T3" s="13" t="s">
+        <v>12038</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>12044</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>12042</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>12048</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>12046</v>
-      </c>
       <c r="W3" s="13" t="s">
-        <v>12053</v>
+        <v>12049</v>
       </c>
       <c r="X3" s="1" t="b">
         <v>1</v>
@@ -37315,46 +37315,46 @@
         <v>11952</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11989</v>
+        <v>11985</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11994</v>
+        <v>11990</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11999</v>
+        <v>11995</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12004</v>
+        <v>12000</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11868</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12010</v>
+        <v>12006</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12013</v>
+        <v>12009</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>12014</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>12018</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>12022</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>12022</v>
+        <v>12018</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>12027</v>
+        <v>12023</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>12030</v>
+        <v>12026</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>12030</v>
+        <v>12026</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>12033</v>
+        <v>12029</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>11964</v>
@@ -37363,19 +37363,19 @@
         <v>11867</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>12038</v>
+        <v>12034</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>12043</v>
+        <v>12039</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>12049</v>
+        <v>12045</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>12046</v>
+        <v>12042</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>12054</v>
+        <v>12050</v>
       </c>
       <c r="X4" s="1" t="b">
         <v>1</v>
@@ -37389,46 +37389,46 @@
         <v>11953</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11986</v>
+        <v>11982</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11995</v>
+        <v>11991</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12000</v>
+        <v>11996</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12002</v>
+        <v>11998</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11867</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>12006</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>12010</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12014</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>11965</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12023</v>
+        <v>12019</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>12023</v>
+        <v>12019</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>12028</v>
+        <v>12024</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>12026</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>12026</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>12030</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>12030</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>12034</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>11964</v>
@@ -37437,19 +37437,19 @@
         <v>11871</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>12039</v>
+        <v>12035</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>12044</v>
+        <v>12040</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>12050</v>
+        <v>12046</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>12046</v>
+        <v>12042</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>12055</v>
+        <v>12051</v>
       </c>
       <c r="X5" s="1" t="b">
         <v>1</v>
@@ -37466,43 +37466,43 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11996</v>
+        <v>11992</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12001</v>
+        <v>11997</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12007</v>
+        <v>12003</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11872</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12010</v>
+        <v>12006</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>12011</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>12015</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>12019</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>12024</v>
+        <v>12020</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>12024</v>
+        <v>12020</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>12029</v>
+        <v>12025</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>12030</v>
+        <v>12026</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>12030</v>
+        <v>12026</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>12035</v>
+        <v>12031</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>11964</v>
@@ -37511,19 +37511,19 @@
         <v>11874</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>12040</v>
+        <v>12036</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>12045</v>
+        <v>12041</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>12051</v>
+        <v>12047</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>12046</v>
+        <v>12042</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>12056</v>
+        <v>12052</v>
       </c>
       <c r="X6" s="1" t="b">
         <v>1</v>
@@ -37588,10 +37588,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>12002</v>
+        <v>11998</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11986</v>
+        <v>11982</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11956</v>
@@ -37647,10 +37647,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>12003</v>
+        <v>11999</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11987</v>
+        <v>11983</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11957</v>
@@ -37706,7 +37706,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>12004</v>
+        <v>12000</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -37765,10 +37765,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>12005</v>
+        <v>12001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11988</v>
+        <v>11984</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11959</v>
@@ -37806,7 +37806,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>12006</v>
+        <v>12002</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11946</v>
@@ -37847,10 +37847,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>12007</v>
+        <v>12003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11989</v>
+        <v>11985</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11961</v>
@@ -37888,10 +37888,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>12008</v>
+        <v>12004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11990</v>
+        <v>11986</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11962</v>
@@ -37923,10 +37923,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>12009</v>
+        <v>12005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11991</v>
+        <v>11987</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11963</v>
